--- a/results/21_3_8 Experiment - Instance Based Sweeping/c0_s2_1_per_layer_fgsm.xlsx
+++ b/results/21_3_8 Experiment - Instance Based Sweeping/c0_s2_1_per_layer_fgsm.xlsx
@@ -441,13 +441,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.843250036239624</v>
+        <v>0.8257501125335693</v>
       </c>
       <c r="C2">
-        <v>0.718250036239624</v>
+        <v>0.7060000896453857</v>
       </c>
       <c r="D2">
-        <v>0.4292500019073486</v>
+        <v>0.4322500228881836</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -455,13 +455,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.8967500329017639</v>
+        <v>0.8842500448226929</v>
       </c>
       <c r="C3">
-        <v>0.8345000147819519</v>
+        <v>0.8457499742507935</v>
       </c>
       <c r="D3">
-        <v>0.7227500081062317</v>
+        <v>0.706000030040741</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -469,13 +469,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.8521466255187988</v>
-      </c>
-      <c r="C4">
-        <v>0.7497886419296265</v>
+        <v>0.8058431148529053</v>
       </c>
       <c r="D4">
-        <v>0.4335766434669495</v>
+        <v>0.3888919949531555</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -483,13 +480,10 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.9007072448730469</v>
-      </c>
-      <c r="C5">
-        <v>0.8517623543739319</v>
+        <v>0.8400057554244995</v>
       </c>
       <c r="D5">
-        <v>0.7244990468025208</v>
+        <v>0.6442725658416748</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -497,10 +491,13 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.7945922613143921</v>
+        <v>0.833939790725708</v>
       </c>
       <c r="C6">
-        <v>0.6461985111236572</v>
+        <v>0.7052809000015259</v>
+      </c>
+      <c r="D6">
+        <v>0.4375340342521667</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -508,10 +505,13 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.8784858584403992</v>
+        <v>0.8957823514938354</v>
       </c>
       <c r="C7">
-        <v>0.7903258204460144</v>
+        <v>0.8444927930831909</v>
+      </c>
+      <c r="D7">
+        <v>0.7132723331451416</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -519,13 +519,13 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.3955000340938568</v>
+        <v>0.8287500143051147</v>
       </c>
       <c r="C8">
-        <v>0.5637500286102295</v>
+        <v>0.9390000104904175</v>
       </c>
       <c r="D8">
-        <v>0.5475000143051147</v>
+        <v>0.940000057220459</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -533,13 +533,13 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.1185000017285347</v>
+        <v>0.8282500505447388</v>
       </c>
       <c r="C9">
-        <v>0.3072500228881836</v>
+        <v>0.9390000104904175</v>
       </c>
       <c r="D9">
-        <v>0.03525000065565109</v>
+        <v>0.8957500457763672</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -547,24 +547,24 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.7899593710899353</v>
+        <v>0.7939512729644775</v>
       </c>
       <c r="C10">
-        <v>0.5756200551986694</v>
+        <v>0.5879067182540894</v>
+      </c>
+      <c r="D10">
+        <v>0.5111579895019531</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B11">
-        <v>0.8061704635620117</v>
-      </c>
       <c r="C11">
-        <v>0.6013344526290894</v>
+        <v>0.4135605990886688</v>
       </c>
       <c r="D11">
-        <v>0.5110657215118408</v>
+        <v>0.5410357117652893</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -572,10 +572,13 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0.7899593710899353</v>
+        <v>0.7939512729644775</v>
       </c>
       <c r="C12">
-        <v>0.5756200551986694</v>
+        <v>0.5879067182540894</v>
+      </c>
+      <c r="D12">
+        <v>0.5111579895019531</v>
       </c>
     </row>
   </sheetData>
